--- a/teaching/traditional_assets/database/data/slovenia/slovenia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/slovenia/slovenia_bank_money_center.xlsx
@@ -590,6 +590,15 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.0174</v>
+      </c>
+      <c r="E2">
+        <v>0.0809</v>
+      </c>
+      <c r="F2">
+        <v>-0.062</v>
+      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -597,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.002771272581744952</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002525607671699132</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>226.3</v>
+        <v>159.7</v>
       </c>
       <c r="L2">
-        <v>0.3722039473684211</v>
+        <v>0.281757233592096</v>
       </c>
       <c r="M2">
-        <v>452</v>
+        <v>0.182</v>
       </c>
       <c r="N2">
-        <v>0.3249694442447336</v>
+        <v>0.0001624274877286925</v>
       </c>
       <c r="O2">
-        <v>1.997348652231551</v>
+        <v>0.001139636819035692</v>
       </c>
       <c r="P2">
-        <v>452</v>
+        <v>0.182</v>
       </c>
       <c r="Q2">
-        <v>0.3249694442447336</v>
+        <v>0.0001624274877286925</v>
       </c>
       <c r="R2">
-        <v>1.997348652231551</v>
+        <v>0.001139636819035692</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,67 +642,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>740.9</v>
+        <v>700.6</v>
       </c>
       <c r="V2">
-        <v>0.5326766841613343</v>
+        <v>0.625256581883088</v>
       </c>
       <c r="W2">
-        <v>0.1055996266915539</v>
+        <v>0.0881492520836783</v>
       </c>
       <c r="X2">
-        <v>0.05457486589592041</v>
+        <v>0.05188135250274772</v>
       </c>
       <c r="Y2">
-        <v>0.05102476079563349</v>
+        <v>0.03626789958093057</v>
       </c>
       <c r="Z2">
-        <v>0.3239858216994942</v>
+        <v>0.3639983302828886</v>
       </c>
       <c r="AA2">
-        <v>0.0008182610768059898</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05133306563996323</v>
+        <v>0.04466536796585908</v>
       </c>
       <c r="AC2">
-        <v>-0.05051480456315723</v>
+        <v>-0.04466536796585908</v>
       </c>
       <c r="AD2">
-        <v>490.2</v>
+        <v>706</v>
       </c>
       <c r="AE2">
-        <v>24.12533135149534</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>514.3253313514954</v>
+        <v>706</v>
       </c>
       <c r="AG2">
-        <v>-226.5746686485046</v>
+        <v>5.399999999999977</v>
       </c>
       <c r="AH2">
-        <v>0.2699551191599223</v>
+        <v>0.3865316178483438</v>
       </c>
       <c r="AI2">
-        <v>0.216756507339944</v>
+        <v>0.2483467004361896</v>
       </c>
       <c r="AJ2">
-        <v>-0.1945973883308947</v>
+        <v>0.004796163069544344</v>
       </c>
       <c r="AK2">
-        <v>-0.1388388698279868</v>
+        <v>0.002520773037064689</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>75.29953917050692</v>
-      </c>
-      <c r="AP2">
-        <v>-34.80409656659057</v>
       </c>
     </row>
     <row r="3">
@@ -712,6 +715,15 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.0174</v>
+      </c>
+      <c r="E3">
+        <v>0.0809</v>
+      </c>
+      <c r="F3">
+        <v>-0.062</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -719,34 +731,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002771272581744952</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.002525607671699132</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>226.3</v>
+        <v>159.7</v>
       </c>
       <c r="L3">
-        <v>0.3722039473684211</v>
+        <v>0.281757233592096</v>
       </c>
       <c r="M3">
-        <v>452</v>
+        <v>0.182</v>
       </c>
       <c r="N3">
-        <v>0.3249694442447336</v>
+        <v>0.0001624274877286925</v>
       </c>
       <c r="O3">
-        <v>1.997348652231551</v>
+        <v>0.001139636819035692</v>
       </c>
       <c r="P3">
-        <v>452</v>
+        <v>0.182</v>
       </c>
       <c r="Q3">
-        <v>0.3249694442447336</v>
+        <v>0.0001624274877286925</v>
       </c>
       <c r="R3">
-        <v>1.997348652231551</v>
+        <v>0.001139636819035692</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -755,67 +767,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>740.9</v>
+        <v>700.6</v>
       </c>
       <c r="V3">
-        <v>0.5326766841613343</v>
+        <v>0.625256581883088</v>
       </c>
       <c r="W3">
-        <v>0.1055996266915539</v>
+        <v>0.0881492520836783</v>
       </c>
       <c r="X3">
-        <v>0.05457486589592041</v>
+        <v>0.05188135250274772</v>
       </c>
       <c r="Y3">
-        <v>0.05102476079563349</v>
+        <v>0.03626789958093057</v>
       </c>
       <c r="Z3">
-        <v>0.3239858216994942</v>
+        <v>0.3639983302828886</v>
       </c>
       <c r="AA3">
-        <v>0.0008182610768059898</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05133306563996323</v>
+        <v>0.04466536796585908</v>
       </c>
       <c r="AC3">
-        <v>-0.05051480456315723</v>
+        <v>-0.04466536796585908</v>
       </c>
       <c r="AD3">
-        <v>490.2</v>
+        <v>706</v>
       </c>
       <c r="AE3">
-        <v>24.12533135149534</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>514.3253313514954</v>
+        <v>706</v>
       </c>
       <c r="AG3">
-        <v>-226.5746686485046</v>
+        <v>5.399999999999977</v>
       </c>
       <c r="AH3">
-        <v>0.2699551191599223</v>
+        <v>0.3865316178483438</v>
       </c>
       <c r="AI3">
-        <v>0.216756507339944</v>
+        <v>0.2483467004361896</v>
       </c>
       <c r="AJ3">
-        <v>-0.1945973883308947</v>
+        <v>0.004796163069544344</v>
       </c>
       <c r="AK3">
-        <v>-0.1388388698279868</v>
+        <v>0.002520773037064689</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>75.29953917050692</v>
-      </c>
-      <c r="AP3">
-        <v>-34.80409656659057</v>
       </c>
     </row>
   </sheetData>
